--- a/test/mac_repair/selenium/TC02c_test_cases.xlsx
+++ b/test/mac_repair/selenium/TC02c_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEWorkspace\mac_repair\test\mac_repair\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29580BC0-3BC0-476D-BE09-8FF93F8BDF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D020DA-1F15-4B45-966A-C78B862669C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="2760" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Test Case</t>
   </si>
@@ -39,10 +39,37 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rep</t>
-  </si>
-  <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>repTest</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Exp MarNum1</t>
+  </si>
+  <si>
+    <t>Exp MarNum2</t>
+  </si>
+  <si>
+    <t>ExpName1</t>
+  </si>
+  <si>
+    <t>ExpName2</t>
+  </si>
+  <si>
+    <t>ExpAssignedDate1</t>
+  </si>
+  <si>
+    <t>ExpAssignedDate2</t>
+  </si>
+  <si>
+    <t>BMC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-25</t>
   </si>
 </sst>
 </file>
@@ -66,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -74,13 +101,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,15 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,31 +490,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
